--- a/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,79</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,43; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>-20,84%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,03; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,43; 0,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -913,27 +913,27 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-23,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,14; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-8,48</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14,24</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-8,93</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,09; 28,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 58,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 5,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,71</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,85; 45,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 139,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,13; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,3; 5,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 36,49</t>
         </is>
       </c>
     </row>
@@ -1225,27 +1225,27 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-9,7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>-25,72</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,3</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 71,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,53; 39,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,81; 25,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,15; 25,25</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,33%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 252,6</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 65,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,35; 35,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,01; 35,04</t>
         </is>
       </c>
     </row>
@@ -1542,27 +1542,27 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,6</t>
         </is>
       </c>
     </row>
@@ -1580,27 +1580,27 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,67; -4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,23; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; -2,61</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,41%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
     </row>
@@ -1656,27 +1656,27 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,67; -4,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,98; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,23; 0,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,73; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; -2,61</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,73</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,12</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,26; 4,75</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 29,64</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,69</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 8,38</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 18,94</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,4%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,76%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,68; 3,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 43,31</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 55,26</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,65; 9,96</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,16; 23,37</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,32</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,13; -1,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,87; 6,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,21; 8,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 8,29</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,93; 0,94</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 4,75</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,12%</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -1,86</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 7,5</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 9,04</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,99; 9,19</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,73</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 5,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-24,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-13,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,44; -4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,39; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,44; -4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,48</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>-16,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,13</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,09; 28,03</t>
+          <t>-49,4; 28,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 0,0</t>
+          <t>-55,35; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 5,25</t>
+          <t>-41,07; 5,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>-16,49%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-13,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 45,31</t>
+          <t>-54,38; 40,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 0,0</t>
+          <t>-55,35; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 5,71</t>
+          <t>-41,81; 5,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B04-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 0,0</t>
+          <t>-20,96; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-73,55; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -4,96</t>
+          <t>-27,48; -4,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 0,0</t>
+          <t>-56,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 0,0</t>
+          <t>-20,96; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,03; 0,0</t>
+          <t>-73,55; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -4,96</t>
+          <t>-27,48; -4,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-55,43; 0,0</t>
+          <t>-56,87; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 0,0</t>
+          <t>-31,79; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 0,0</t>
+          <t>-31,79; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 28,77</t>
+          <t>-51,05; 28,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,3</t>
+          <t>0,0; 71,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 0,0</t>
+          <t>-56,05; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-41,07; 5,15</t>
+          <t>-41,49; 5,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,71</t>
+          <t>0,0; 22,7</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 40,79</t>
+          <t>-59,45; 40,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 139,81</t>
+          <t>0,0; 246,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,35; 0,0</t>
+          <t>-56,05; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 5,43</t>
+          <t>-42,94; 5,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,49</t>
+          <t>0,0; 29,48</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 0,0</t>
+          <t>-22,5; 0,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 0,0</t>
+          <t>-22,5; 0,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-76,41; 0,0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,71</t>
+          <t>0,0; 71,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-80,53; 39,5</t>
+          <t>-81,49; 38,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 25,69</t>
+          <t>-38,74; 25,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 25,25</t>
+          <t>-43,26; 25,66</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>-76,41; 0,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 252,6</t>
+          <t>0,0; 252,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,3</t>
+          <t>-100,0; 61,99</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 35,73</t>
+          <t>-38,99; 35,81</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,01; 35,04</t>
+          <t>-44,47; 34,66</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1580,27 +1580,27 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -4,84</t>
+          <t>-38,17; -4,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 0,0</t>
+          <t>-31,17; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 0,0</t>
+          <t>-28,61; 0,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 0,0</t>
+          <t>-22,35; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -2,61</t>
+          <t>-24,29; -2,6</t>
         </is>
       </c>
     </row>
@@ -1656,27 +1656,27 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -4,84</t>
+          <t>-38,17; -4,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 0,0</t>
+          <t>-31,17; 0,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 0,0</t>
+          <t>-28,61; 0,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 0,0</t>
+          <t>-22,35; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -2,61</t>
+          <t>-24,29; -2,6</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 4,75</t>
+          <t>-28,3; 3,04</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,64</t>
+          <t>0,0; 19,81</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 29,64</t>
+          <t>-3,74; 29,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,69</t>
+          <t>0,0; 34,46</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 8,38</t>
+          <t>-14,22; 9,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>2,11; 18,94</t>
+          <t>2,27; 18,86</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-29,68; 3,87</t>
+          <t>-29,28; 3,21</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,91</t>
+          <t>0,0; 24,7</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 43,31</t>
+          <t>-3,74; 42,93</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,26</t>
+          <t>0,0; 52,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 9,96</t>
+          <t>-14,91; 10,52</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,16; 23,37</t>
+          <t>2,32; 23,23</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-20,13; -1,52</t>
+          <t>-19,8; -1,8</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 6,58</t>
+          <t>-8,06; 6,24</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 8,15</t>
+          <t>-6,42; 9,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,29</t>
+          <t>-8,8; 6,66</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 0,94</t>
+          <t>-10,66; 0,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,75</t>
+          <t>-5,92; 5,31</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-21,1; -1,86</t>
+          <t>-20,51; -2,28</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 7,5</t>
+          <t>-8,22; 6,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 9,04</t>
+          <t>-6,57; 10,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 9,19</t>
+          <t>-9,05; 7,4</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,73</t>
+          <t>-10,89; 0,81</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 5,04</t>
+          <t>-6,04; 5,83</t>
         </is>
       </c>
     </row>
